--- a/artfynd/A 43427-2019.xlsx
+++ b/artfynd/A 43427-2019.xlsx
@@ -813,10 +813,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>113010</v>
+        <v>98596568</v>
       </c>
       <c r="B3" t="n">
-        <v>94120</v>
+        <v>78569</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -829,37 +829,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Ca 750 m SO Bytjärnet, intill blockmark, Dls</t>
+          <t>Lundebo, vid blockvallarna, ca 725 m SO Bytjärnet, Dls</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>342312.1471750498</v>
+        <v>342243.3644460927</v>
       </c>
       <c r="R3" t="n">
-        <v>6523939.469987803</v>
+        <v>6523971.824284667</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1996-10-30</t>
+          <t>2001-05-14</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1996-10-30</t>
+          <t>2001-05-14</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -910,17 +910,19 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>I barrblandskog med aspinslag</t>
-        </is>
-      </c>
-      <c r="AN3" t="n">
-        <v>1</v>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1 substratenheter # Grövre tallåga</t>
+          <t>Grov asp. # Populus tremula</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -938,10 +940,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>80288</v>
+        <v>80065908</v>
       </c>
       <c r="B4" t="n">
-        <v>94120</v>
+        <v>78569</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -954,34 +956,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Vid blockvallarna NV Lundebo, 750 m OSO Bytjärn, Dls</t>
+          <t>Blockvallarna Lundebo, Dls</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>342286.3494918213</v>
+        <v>342592.6929406116</v>
       </c>
       <c r="R4" t="n">
-        <v>6523994.431422278</v>
+        <v>6523611.303520273</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1008,7 +1013,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2001-05-14</t>
+          <t>2019-09-23</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1018,7 +1023,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2001-05-14</t>
+          <t>2019-09-23</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1028,7 +1033,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Sparsamt, tillsammans med Lophozia ascendens</t>
+          <t>På Asp. Kalhugget runt omkring.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1037,41 +1042,29 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>I barrdominerad blandskog</t>
-        </is>
-      </c>
-      <c r="AN4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Asplåga</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>113011</v>
+        <v>80217938</v>
       </c>
       <c r="B5" t="n">
-        <v>94120</v>
+        <v>78569</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1084,37 +1077,40 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Ca 700 m SO Bytjärnet, Dls</t>
+          <t>Lundebo, 1100 m NV om, Dls</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>342242.0119316755</v>
+        <v>342651.1325394279</v>
       </c>
       <c r="R5" t="n">
-        <v>6523938.705040169</v>
+        <v>6523669.05601931</v>
       </c>
       <c r="S5" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1138,7 +1134,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1996-10-30</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1148,7 +1144,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>1996-10-30</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1162,41 +1158,44 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>I barrblandskog med aspinslag</t>
-        </is>
-      </c>
-      <c r="AN5" t="n">
-        <v>1</v>
+          <t>Blockig granblandskogasp-</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>Asp</t>
+        </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1 substratenheter # Klen granlåga</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Claes Kannesten</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Claes Kannesten, Anders Niklasson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>200412</v>
+        <v>92497986</v>
       </c>
       <c r="B6" t="n">
-        <v>94633</v>
+        <v>94634</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1229,17 +1228,17 @@
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Ca 1,3 km NV Lundebo, ca 25 m V om vägen, Dls</t>
+          <t>Lämmelmossen (UE 03), Dls</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>342563.6217579405</v>
+        <v>342616.1177549633</v>
       </c>
       <c r="R6" t="n">
-        <v>6523802.733529816</v>
+        <v>6523689.144047635</v>
       </c>
       <c r="S6" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1263,7 +1262,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2001-06-15</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1273,7 +1272,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2001-06-15</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1292,42 +1291,28 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Grandominerad sumpskog</t>
-        </is>
-      </c>
-      <c r="AN6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Grov björklåga</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>Leif Appelgren</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr"/>
+          <t>Barrskog med inslag av grov asp</t>
+        </is>
+      </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>254200</v>
+        <v>92499038</v>
       </c>
       <c r="B7" t="n">
-        <v>93234</v>
+        <v>94437</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1336,50 +1321,41 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>210</v>
+        <v>990</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Liten hornflikmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Lophozia ascendens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>kapslar</t>
-        </is>
-      </c>
+          <t>(Warnst.) R.M.Schust.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Lundebo, vid blockvallarna, 800 m SO Bytjärnet, Dls</t>
+          <t>Lämmelmossen (UE 03), Dls</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>342312.8768359129</v>
+        <v>342616.1177549633</v>
       </c>
       <c r="R7" t="n">
-        <v>6523944.623724218</v>
+        <v>6523689.144047635</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1403,7 +1379,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2001-05-10</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1413,7 +1389,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2001-05-10</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1427,41 +1403,34 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Fuktig granskog med aspinslag</t>
-        </is>
-      </c>
-      <c r="AN7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Murken asplåga</t>
+          <t>Barrskog med inslag av grov asp</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Leif Appelgren, Niklas Lönnell, Tomas Hallingbäck</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1956318</v>
+        <v>92497786</v>
       </c>
       <c r="B8" t="n">
-        <v>78568</v>
+        <v>94121</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1474,37 +1443,37 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Blockvallarna vid Lundebo, ca 850 m SO Bytjärnet, Dls</t>
+          <t>Lämmelmossen (UE 03), Dls</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>342312.9148465615</v>
+        <v>342616.1177549633</v>
       </c>
       <c r="R8" t="n">
-        <v>6523856.501381523</v>
+        <v>6523689.144047635</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1528,7 +1497,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2001-05-14</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1538,7 +1507,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2001-05-14</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1557,33 +1526,28 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Barrblandskog med aspinslag</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>aspbark</t>
+          <t>Barrskog med inslag av grov asp</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>295371</v>
+        <v>92498240</v>
       </c>
       <c r="B9" t="n">
-        <v>78599</v>
+        <v>93044</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1592,41 +1556,41 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1083</v>
+        <v>2809</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Västlig njurlav</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nephroma laevigatum</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Ach.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Blockvallarna vid Lundebo, ca 850 m SO Bytjärnet, Dls</t>
+          <t>Lämmelmossen (UE 03), Dls</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>342312.9148465615</v>
+        <v>342616.1177549633</v>
       </c>
       <c r="R9" t="n">
-        <v>6523856.501381523</v>
+        <v>6523689.144047635</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1650,7 +1614,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2001-05-14</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1660,7 +1624,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2001-05-14</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1668,11 +1632,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Sparsamt förekommande</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1684,39 +1643,28 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Barrblandskog med aspinslag</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>aspbark</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>Leif Appelgren</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr"/>
+          <t>Barrskog med inslag av grov asp</t>
+        </is>
+      </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>382822</v>
+        <v>92498425</v>
       </c>
       <c r="B10" t="n">
-        <v>94436</v>
+        <v>94132</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1725,41 +1673,41 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>990</v>
+        <v>291</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Liten hornflikmossa</t>
+          <t>Stubbtrådmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lophozia ascendens</t>
+          <t>Fuscocephaloziopsis catenulata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Warnst.) R.M.Schust.</t>
+          <t>(Huebener) Váňa &amp; L.Söderstr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Vid blockvallarna NV Lundebo, 750 m OSO Bytjärn, Dls</t>
+          <t>Lämmelmossen (UE 03), Dls</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>342286.3494918213</v>
+        <v>342616.1177549633</v>
       </c>
       <c r="R10" t="n">
-        <v>6523994.431422278</v>
+        <v>6523689.144047635</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1783,7 +1731,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2001-05-14</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1793,7 +1741,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2001-05-14</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1812,39 +1760,28 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>I barrdominerad blandskog</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>På asplåga</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>Leif Appelgren</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr"/>
+          <t>Barrskog med inslag av grov asp</t>
+        </is>
+      </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>630580</v>
+        <v>113010</v>
       </c>
       <c r="B11" t="n">
-        <v>92682</v>
+        <v>94120</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1853,38 +1790,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2383</v>
+        <v>53</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bågpraktmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Plagiomnium medium</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Bruch &amp; Schimp.) T.J.Kop.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Blockvallarna NV Lundebo, drygt 1 km SO Bytjärn, Dls</t>
+          <t>Ca 750 m SO Bytjärnet, intill blockmark, Dls</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>342479.6157512952</v>
+        <v>342312.1471750498</v>
       </c>
       <c r="R11" t="n">
-        <v>6523691.078499206</v>
+        <v>6523939.469987803</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1911,7 +1848,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2001-05-14</t>
+          <t>1996-10-30</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1921,7 +1858,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2001-05-14</t>
+          <t>1996-10-30</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1940,20 +1877,17 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Trädlös blockvall omgiven av skog, skuggigt</t>
-        </is>
+          <t>I barrblandskog med aspinslag</t>
+        </is>
+      </c>
+      <c r="AN11" t="n">
+        <v>1</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>På stenblock !</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>Leif Appelgren</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr"/>
+          <t>1 substratenheter # Grövre tallåga</t>
+        </is>
+      </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
@@ -1969,10 +1903,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>486885</v>
+        <v>80288</v>
       </c>
       <c r="B12" t="n">
-        <v>92687</v>
+        <v>94120</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1981,41 +1915,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2387</v>
+        <v>53</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Källpraktmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pseudobryum cinclidioides</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Huebener) T.J.Kop.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Vid blockvallarna NV Lundebo, ca 1 km NV Lundebo, Dls</t>
+          <t>Vid blockvallarna NV Lundebo, 750 m OSO Bytjärn, Dls</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>342453.5972971452</v>
+        <v>342286.3494918213</v>
       </c>
       <c r="R12" t="n">
-        <v>6523791.667791574</v>
+        <v>6523994.431422278</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2057,6 +1991,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Sparsamt, tillsammans med Lophozia ascendens</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -2068,20 +2007,17 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Källkärr och bäckdråg i barrdominerad blandskog</t>
-        </is>
+          <t>I barrdominerad blandskog</t>
+        </is>
+      </c>
+      <c r="AN12" t="n">
+        <v>1</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Fuktig/blöt mark</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>Leif Appelgren</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr"/>
+          <t>1 substratenheter # Asplåga</t>
+        </is>
+      </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
@@ -2097,10 +2033,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>73121882</v>
+        <v>113011</v>
       </c>
       <c r="B13" t="n">
-        <v>94838</v>
+        <v>94120</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2109,44 +2045,41 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2569</v>
+        <v>53</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Lundebo Blockvallarna, Dls</t>
+          <t>Ca 700 m SO Bytjärnet, Dls</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>342336.8589270007</v>
+        <v>342242.0119316755</v>
       </c>
       <c r="R13" t="n">
-        <v>6523845.15682405</v>
+        <v>6523938.705040169</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2170,7 +2103,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2018-09-14</t>
+          <t>1996-10-30</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2180,7 +2113,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2018-09-14</t>
+          <t>1996-10-30</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2194,29 +2127,41 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>I barrblandskog med aspinslag</t>
+        </is>
+      </c>
+      <c r="AN13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Klen granlåga</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>73121911</v>
+        <v>200412</v>
       </c>
       <c r="B14" t="n">
-        <v>78569</v>
+        <v>94633</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2225,43 +2170,41 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>232</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedsäckmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Calypogeia suecica</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Arnell &amp; J.Perss.) Müll.Frib.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Lundebo Blockvallarna , Dls</t>
+          <t>Ca 1,3 km NV Lundebo, ca 25 m V om vägen, Dls</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>342307.5711640292</v>
+        <v>342563.6217579405</v>
       </c>
       <c r="R14" t="n">
-        <v>6523865.53167384</v>
+        <v>6523802.733529816</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2285,7 +2228,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2018-09-14</t>
+          <t>2001-06-15</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2295,7 +2238,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2018-09-14</t>
+          <t>2001-06-15</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2303,90 +2246,102 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>På 2  Aspar</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Grandominerad sumpskog</t>
+        </is>
+      </c>
+      <c r="AN14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Grov björklåga</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>Leif Appelgren</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr"/>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>73121914</v>
+        <v>254200</v>
       </c>
       <c r="B15" t="n">
-        <v>78529</v>
+        <v>93234</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>515</v>
+        <v>210</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blylav</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pectenia plumbea</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Lightf.) P.M.Jørg. et al.</t>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bålar</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
+          <t>kapslar</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Lundebo Blockvallarna , Dls</t>
+          <t>Lundebo, vid blockvallarna, 800 m SO Bytjärnet, Dls</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>342307.5711640292</v>
+        <v>342312.8768359129</v>
       </c>
       <c r="R15" t="n">
-        <v>6523865.53167384</v>
+        <v>6523944.623724218</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2413,7 +2368,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2018-09-14</t>
+          <t>2001-05-10</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2423,7 +2378,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2018-09-14</t>
+          <t>2001-05-10</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2431,40 +2386,47 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>På döende Asp</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>Fuktig granskog med aspinslag</t>
+        </is>
+      </c>
+      <c r="AN15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Murken asplåga</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Leif Appelgren, Niklas Lönnell, Tomas Hallingbäck</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>76139727</v>
+        <v>1956318</v>
       </c>
       <c r="B16" t="n">
-        <v>93158</v>
+        <v>78568</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2473,41 +2435,41 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2818</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Lundebo, 1,3 km NV om, ca 25 m V om vägen, Dls</t>
+          <t>Blockvallarna vid Lundebo, ca 850 m SO Bytjärnet, Dls</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>342563.6217579405</v>
+        <v>342312.9148465615</v>
       </c>
       <c r="R16" t="n">
-        <v>6523802.733529816</v>
+        <v>6523856.501381523</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2531,7 +2493,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2001-06-15</t>
+          <t>2001-05-14</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2541,7 +2503,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2001-06-15</t>
+          <t>2001-05-14</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2549,11 +2511,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Som epifyt på klibbal.</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2565,12 +2522,12 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>Grandominerad sumpskog.</t>
+          <t>Barrblandskog med aspinslag</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>På klibbal, 2-3 m över backen.</t>
+          <t>aspbark</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2588,10 +2545,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>80065908</v>
+        <v>295371</v>
       </c>
       <c r="B17" t="n">
-        <v>78569</v>
+        <v>78599</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2600,41 +2557,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>1083</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Västlig njurlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma laevigatum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Blockvallarna Lundebo, Dls</t>
+          <t>Blockvallarna vid Lundebo, ca 850 m SO Bytjärnet, Dls</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>342592.6929406116</v>
+        <v>342312.9148465615</v>
       </c>
       <c r="R17" t="n">
-        <v>6523611.303520273</v>
+        <v>6523856.501381523</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2661,7 +2615,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2019-09-23</t>
+          <t>2001-05-14</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2671,7 +2625,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2019-09-23</t>
+          <t>2001-05-14</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2681,7 +2635,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>På Asp. Kalhugget runt omkring.</t>
+          <t>Sparsamt förekommande</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2690,29 +2644,44 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>Barrblandskog med aspinslag</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>aspbark</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>Leif Appelgren</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr"/>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>80065943</v>
+        <v>382822</v>
       </c>
       <c r="B18" t="n">
-        <v>94838</v>
+        <v>94436</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2721,42 +2690,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2569</v>
+        <v>990</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Liten hornflikmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Lophozia ascendens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>(Warnst.) R.M.Schust.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Blockvallarna Lundebo, Dls</t>
+          <t>Vid blockvallarna NV Lundebo, 750 m OSO Bytjärn, Dls</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>342540.2923115456</v>
+        <v>342286.3494918213</v>
       </c>
       <c r="R18" t="n">
-        <v>6523561.599159945</v>
+        <v>6523994.431422278</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2783,7 +2748,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2019-09-23</t>
+          <t>2001-05-14</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2793,7 +2758,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2019-09-23</t>
+          <t>2001-05-14</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2807,29 +2772,44 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>I barrdominerad blandskog</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>På asplåga</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>Leif Appelgren</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr"/>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>80065937</v>
+        <v>630580</v>
       </c>
       <c r="B19" t="n">
-        <v>78529</v>
+        <v>92682</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2838,52 +2818,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>515</v>
+        <v>2383</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blylav</t>
+          <t>Bågpraktmossa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pectenia plumbea</t>
+          <t>Plagiomnium medium</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Lightf.) P.M.Jørg. et al.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+          <t>(Bruch &amp; Schimp.) T.J.Kop.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Blockvallarna Lundebo, Dls</t>
+          <t>Blockvallarna NV Lundebo, drygt 1 km SO Bytjärn, Dls</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>342540.2923115456</v>
+        <v>342479.6157512952</v>
       </c>
       <c r="R19" t="n">
-        <v>6523561.599159945</v>
+        <v>6523691.078499206</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2907,7 +2876,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2019-09-23</t>
+          <t>2001-05-14</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2917,7 +2886,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2019-09-23</t>
+          <t>2001-05-14</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2931,29 +2900,44 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Trädlös blockvall omgiven av skog, skuggigt</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>På stenblock !</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>Leif Appelgren</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr"/>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>80065929</v>
+        <v>486885</v>
       </c>
       <c r="B20" t="n">
-        <v>78569</v>
+        <v>92687</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2962,44 +2946,41 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>2387</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Källpraktmossa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudobryum cinclidioides</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Huebener) T.J.Kop.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Blockvallarna Lundebo, Dls</t>
+          <t>Vid blockvallarna NV Lundebo, ca 1 km NV Lundebo, Dls</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>342540.2923115456</v>
+        <v>342453.5972971452</v>
       </c>
       <c r="R20" t="n">
-        <v>6523561.599159945</v>
+        <v>6523791.667791574</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3023,7 +3004,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2019-09-23</t>
+          <t>2001-05-14</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3033,7 +3014,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2019-09-23</t>
+          <t>2001-05-14</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -3047,29 +3028,44 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Källkärr och bäckdråg i barrdominerad blandskog</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Fuktig/blöt mark</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>Leif Appelgren</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr"/>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>80217868</v>
+        <v>73121882</v>
       </c>
       <c r="B21" t="n">
-        <v>78529</v>
+        <v>94838</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3078,41 +3074,41 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>515</v>
+        <v>2569</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blylav</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pectenia plumbea</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Lightf.) P.M.Jørg. et al.</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Lundebo, 1200 m NV om, Dls</t>
+          <t>Lundebo Blockvallarna, Dls</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>342548.4824541288</v>
+        <v>342336.8589270007</v>
       </c>
       <c r="R21" t="n">
-        <v>6523558.673379607</v>
+        <v>6523845.15682405</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3139,7 +3135,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2019-10-01</t>
+          <t>2018-09-14</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3149,7 +3145,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2019-10-01</t>
+          <t>2018-09-14</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3167,37 +3163,22 @@
       <c r="AG21" t="b">
         <v>0</v>
       </c>
-      <c r="AI21" t="inlineStr">
-        <is>
-          <t>Blockig granblandskogasp-</t>
-        </is>
-      </c>
-      <c r="AL21" t="inlineStr">
-        <is>
-          <t>Asp</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Asp</t>
-        </is>
-      </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Claes Kannesten</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Claes Kannesten, Anders Niklasson</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>80217938</v>
+        <v>73121911</v>
       </c>
       <c r="B22" t="n">
         <v>78569</v>
@@ -3233,17 +3214,16 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Lundebo, 1100 m NV om, Dls</t>
+          <t>Lundebo Blockvallarna , Dls</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>342651.1325394279</v>
+        <v>342307.5711640292</v>
       </c>
       <c r="R22" t="n">
-        <v>6523669.05601931</v>
+        <v>6523865.53167384</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3270,7 +3250,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2019-10-01</t>
+          <t>2018-09-14</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3280,12 +3260,17 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2019-10-01</t>
+          <t>2018-09-14</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>På 2  Aspar</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3298,83 +3283,75 @@
       <c r="AG22" t="b">
         <v>0</v>
       </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>Blockig granblandskogasp-</t>
-        </is>
-      </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>Asp</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Asp</t>
-        </is>
-      </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Claes Kannesten</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Claes Kannesten, Anders Niklasson</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>80217831</v>
+        <v>73121914</v>
       </c>
       <c r="B23" t="n">
-        <v>78569</v>
+        <v>78529</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>515</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blylav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pectenia plumbea</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+          <t>(Lightf.) P.M.Jørg. et al.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Lundebo, 1200 m NV om, Dls</t>
+          <t>Lundebo Blockvallarna , Dls</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>342548.4824541288</v>
+        <v>342307.5711640292</v>
       </c>
       <c r="R23" t="n">
-        <v>6523558.673379607</v>
+        <v>6523865.53167384</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3401,7 +3378,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2019-10-01</t>
+          <t>2018-09-14</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3411,12 +3388,17 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2019-10-01</t>
+          <t>2018-09-14</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>På döende Asp</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3429,40 +3411,25 @@
       <c r="AG23" t="b">
         <v>0</v>
       </c>
-      <c r="AI23" t="inlineStr">
-        <is>
-          <t>Blockig granblandskogasp-</t>
-        </is>
-      </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>Asp.</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Asp.</t>
-        </is>
-      </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Claes Kannesten</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Claes Kannesten, Anders Niklasson</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>80217877</v>
+        <v>76139727</v>
       </c>
       <c r="B24" t="n">
-        <v>78527</v>
+        <v>93158</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3475,40 +3442,37 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>229497</v>
+        <v>2818</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Lundebo, 1200 m NV om, Dls</t>
+          <t>Lundebo, 1,3 km NV om, ca 25 m V om vägen, Dls</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>342548.4824541288</v>
+        <v>342563.6217579405</v>
       </c>
       <c r="R24" t="n">
-        <v>6523558.673379607</v>
+        <v>6523802.733529816</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3532,7 +3496,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2019-10-01</t>
+          <t>2001-06-15</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3542,7 +3506,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2019-10-01</t>
+          <t>2001-06-15</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3550,50 +3514,49 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Som epifyt på klibbal.</t>
+        </is>
+      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>Blockig granblandskogasp-</t>
-        </is>
-      </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>Asp</t>
+          <t>Grandominerad sumpskog.</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Asp</t>
+          <t>På klibbal, 2-3 m över backen.</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Claes Kannesten</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Claes Kannesten, Anders Niklasson</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>80273556</v>
+        <v>80065943</v>
       </c>
       <c r="B25" t="n">
-        <v>78527</v>
+        <v>94838</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3606,37 +3569,38 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>229497</v>
+        <v>2569</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Lundebo, 1100 m NV om., Dls</t>
+          <t>Blockvallarna Lundebo, Dls</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>342594.7090437668</v>
+        <v>342540.2923115456</v>
       </c>
       <c r="R25" t="n">
-        <v>6523431.335037406</v>
+        <v>6523561.599159945</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3663,7 +3627,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2019-10-01</t>
+          <t>2019-09-23</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3673,7 +3637,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2019-10-01</t>
+          <t>2019-09-23</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3691,30 +3655,25 @@
       <c r="AG25" t="b">
         <v>0</v>
       </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Asp</t>
-        </is>
-      </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Claes Kannesten</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Claes Kannesten, Anders Niklasson</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>92498735</v>
+        <v>80065937</v>
       </c>
       <c r="B26" t="n">
-        <v>89403</v>
+        <v>78529</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3723,41 +3682,52 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1205</v>
+        <v>515</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Blylav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Pectenia plumbea</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Niemelä</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>(Lightf.) P.M.Jørg. et al.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Lämmelmossen (UE 03), Dls</t>
+          <t>Blockvallarna Lundebo, Dls</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>342519.1061621036</v>
+        <v>342540.2923115456</v>
       </c>
       <c r="R26" t="n">
-        <v>6523666.141268214</v>
+        <v>6523561.599159945</v>
       </c>
       <c r="S26" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3781,7 +3751,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2019-09-23</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3791,7 +3761,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2019-09-23</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3805,33 +3775,29 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
-      </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>Barrskog med inslag av grov asp</t>
-        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>92498754</v>
+        <v>80065929</v>
       </c>
       <c r="B27" t="n">
-        <v>78527</v>
+        <v>78569</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3840,41 +3806,44 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>229497</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Lämmelmossen (UE 03), Dls</t>
+          <t>Blockvallarna Lundebo, Dls</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>342530.7410194727</v>
+        <v>342540.2923115456</v>
       </c>
       <c r="R27" t="n">
-        <v>6523696.770064287</v>
+        <v>6523561.599159945</v>
       </c>
       <c r="S27" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3898,7 +3867,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2019-09-23</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3908,7 +3877,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2019-09-23</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3922,33 +3891,29 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>Barrskog med inslag av grov asp</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>92497986</v>
+        <v>80217868</v>
       </c>
       <c r="B28" t="n">
-        <v>94634</v>
+        <v>78529</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3957,41 +3922,44 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>232</v>
+        <v>515</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vedsäckmossa</t>
+          <t>Blylav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Calypogeia suecica</t>
+          <t>Pectenia plumbea</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Arnell &amp; J.Perss.) Müll.Frib.</t>
+          <t>(Lightf.) P.M.Jørg. et al.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Lämmelmossen (UE 03), Dls</t>
+          <t>Lundebo, 1200 m NV om, Dls</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>342616.1177549633</v>
+        <v>342548.4824541288</v>
       </c>
       <c r="R28" t="n">
-        <v>6523689.144047635</v>
+        <v>6523558.673379607</v>
       </c>
       <c r="S28" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -4015,7 +3983,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -4025,7 +3993,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -4039,33 +4007,44 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>Barrskog med inslag av grov asp</t>
+          <t>Blockig granblandskogasp-</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>Asp</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Claes Kannesten</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Claes Kannesten, Anders Niklasson</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>92499038</v>
+        <v>80217831</v>
       </c>
       <c r="B29" t="n">
-        <v>94437</v>
+        <v>78569</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4074,41 +4053,44 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>990</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Liten hornflikmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lophozia ascendens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Warnst.) R.M.Schust.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Lämmelmossen (UE 03), Dls</t>
+          <t>Lundebo, 1200 m NV om, Dls</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>342616.1177549633</v>
+        <v>342548.4824541288</v>
       </c>
       <c r="R29" t="n">
-        <v>6523689.144047635</v>
+        <v>6523558.673379607</v>
       </c>
       <c r="S29" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4132,7 +4114,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -4142,7 +4124,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -4162,28 +4144,38 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>Barrskog med inslag av grov asp</t>
+          <t>Blockig granblandskogasp-</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>Asp.</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Asp.</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Claes Kannesten</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Claes Kannesten, Anders Niklasson</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>92497786</v>
+        <v>80217877</v>
       </c>
       <c r="B30" t="n">
-        <v>94121</v>
+        <v>78527</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4192,41 +4184,44 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>53</v>
+        <v>229497</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Lämmelmossen (UE 03), Dls</t>
+          <t>Lundebo, 1200 m NV om, Dls</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>342616.1177549633</v>
+        <v>342548.4824541288</v>
       </c>
       <c r="R30" t="n">
-        <v>6523689.144047635</v>
+        <v>6523558.673379607</v>
       </c>
       <c r="S30" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4250,7 +4245,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -4260,7 +4255,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -4274,33 +4269,44 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>Barrskog med inslag av grov asp</t>
+          <t>Blockig granblandskogasp-</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>Asp</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Claes Kannesten</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Claes Kannesten, Anders Niklasson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>92498427</v>
+        <v>80273556</v>
       </c>
       <c r="B31" t="n">
-        <v>94132</v>
+        <v>78527</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4309,41 +4315,44 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>291</v>
+        <v>229497</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Stubbtrådmossa</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Fuscocephaloziopsis catenulata</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Huebener) Váňa &amp; L.Söderstr.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Lämmelmossen (UE 03), Dls</t>
+          <t>Lundebo, 1100 m NV om., Dls</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>342473.8166226569</v>
+        <v>342594.7090437668</v>
       </c>
       <c r="R31" t="n">
-        <v>6523790.843284611</v>
+        <v>6523431.335037406</v>
       </c>
       <c r="S31" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4367,7 +4376,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4377,7 +4386,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4391,33 +4400,34 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
-      <c r="AI31" t="inlineStr">
-        <is>
-          <t>Barrsumpskog</t>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Claes Kannesten</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Claes Kannesten, Anders Niklasson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>92498240</v>
+        <v>92498735</v>
       </c>
       <c r="B32" t="n">
-        <v>93044</v>
+        <v>89403</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4430,21 +4440,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2809</v>
+        <v>1205</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4454,10 +4464,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>342616.1177549633</v>
+        <v>342519.1061621036</v>
       </c>
       <c r="R32" t="n">
-        <v>6523689.144047635</v>
+        <v>6523666.141268214</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4531,10 +4541,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>92497988</v>
+        <v>92498754</v>
       </c>
       <c r="B33" t="n">
-        <v>94634</v>
+        <v>78527</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4543,25 +4553,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>232</v>
+        <v>229497</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedsäckmossa</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Calypogeia suecica</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Arnell &amp; J.Perss.) Müll.Frib.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4571,10 +4581,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>342484.2066089435</v>
+        <v>342530.7410194727</v>
       </c>
       <c r="R33" t="n">
-        <v>6523790.938011299</v>
+        <v>6523696.770064287</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4630,12 +4640,7 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>Barrsumpskog</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
+          <t>Barrskog med inslag av grov asp</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4653,7 +4658,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>92498425</v>
+        <v>92498427</v>
       </c>
       <c r="B34" t="n">
         <v>94132</v>
@@ -4693,10 +4698,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>342616.1177549633</v>
+        <v>342473.8166226569</v>
       </c>
       <c r="R34" t="n">
-        <v>6523689.144047635</v>
+        <v>6523790.843284611</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4752,7 +4757,7 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>Barrskog med inslag av grov asp</t>
+          <t>Barrsumpskog</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4770,10 +4775,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>97723010</v>
+        <v>92497988</v>
       </c>
       <c r="B35" t="n">
-        <v>78600</v>
+        <v>94634</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4786,37 +4791,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1083</v>
+        <v>232</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Västlig njurlav</t>
+          <t>Vedsäckmossa</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Nephroma laevigatum</t>
+          <t>Calypogeia suecica</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Ach.</t>
+          <t>(Arnell &amp; J.Perss.) Müll.Frib.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Lundebo, blockvallarna ca 1,3 km NV om L., Dls</t>
+          <t>Lämmelmossen (UE 03), Dls</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>342386.6523272874</v>
+        <v>342484.2066089435</v>
       </c>
       <c r="R35" t="n">
-        <v>6523703.682498968</v>
+        <v>6523790.938011299</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4840,7 +4845,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2021-10-17</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4850,7 +4855,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2021-10-17</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -4869,43 +4874,33 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>Granskog med aspinslag.</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
+          <t>Barrsumpskog</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>På asp, diam. 34-40 cm. # Populus tremula</t>
+          <t>Granlåga</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>97723023</v>
+        <v>97723010</v>
       </c>
       <c r="B36" t="n">
-        <v>78602</v>
+        <v>78600</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4914,38 +4909,38 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6463</v>
+        <v>1083</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Västlig njurlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Nephroma laevigatum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Lundebo, blockvallarna ca 1,5 km NV om L., Dls</t>
+          <t>Lundebo, blockvallarna ca 1,3 km NV om L., Dls</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>342324.8062375608</v>
+        <v>342386.6523272874</v>
       </c>
       <c r="R36" t="n">
-        <v>6523867.938354891</v>
+        <v>6523703.682498968</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5001,7 +4996,7 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>Blockvall.</t>
+          <t>Granskog med aspinslag.</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
@@ -5016,7 +5011,7 @@
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>På aspstam. # Populus tremula</t>
+          <t>På asp, diam. 34-40 cm. # Populus tremula</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5034,10 +5029,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>97722971</v>
+        <v>97723023</v>
       </c>
       <c r="B37" t="n">
-        <v>78527</v>
+        <v>78602</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -5050,34 +5045,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>229497</v>
+        <v>6463</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Lundebo, blockvallarna ca 1,4 km NV om L., Dls</t>
+          <t>Lundebo, blockvallarna ca 1,5 km NV om L., Dls</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>342353.0867447078</v>
+        <v>342324.8062375608</v>
       </c>
       <c r="R37" t="n">
-        <v>6523746.522441968</v>
+        <v>6523867.938354891</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5133,7 +5128,7 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>Granskog med aspinslag.</t>
+          <t>Blockvall.</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
@@ -5148,7 +5143,7 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>På asp, diam. ca 50 cm. # Populus tremula</t>
+          <t>På aspstam. # Populus tremula</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5166,10 +5161,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>97723022</v>
+        <v>97722971</v>
       </c>
       <c r="B38" t="n">
-        <v>78529</v>
+        <v>78527</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5178,38 +5173,38 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>515</v>
+        <v>229497</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blylav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Pectenia plumbea</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Lightf.) P.M.Jørg. et al.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Lundebo, blockvallarna ca 1,5 km NV om L., Dls</t>
+          <t>Lundebo, blockvallarna ca 1,4 km NV om L., Dls</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>342325.833498445</v>
+        <v>342353.0867447078</v>
       </c>
       <c r="R38" t="n">
-        <v>6523854.937361188</v>
+        <v>6523746.522441968</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5265,7 +5260,7 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>Blockvall.</t>
+          <t>Granskog med aspinslag.</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
@@ -5280,7 +5275,7 @@
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>På asp, diam. ca 35 cm. # Populus tremula</t>
+          <t>På asp, diam. ca 50 cm. # Populus tremula</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5298,10 +5293,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>97722972</v>
+        <v>97723022</v>
       </c>
       <c r="B39" t="n">
-        <v>94634</v>
+        <v>78529</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5310,38 +5305,38 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>232</v>
+        <v>515</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vedsäckmossa</t>
+          <t>Blylav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Calypogeia suecica</t>
+          <t>Pectenia plumbea</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Arnell &amp; J.Perss.) Müll.Frib.</t>
+          <t>(Lightf.) P.M.Jørg. et al.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Lundebo, blockvallarna ca 1,3 km NV om L., Dls</t>
+          <t>Lundebo, blockvallarna ca 1,5 km NV om L., Dls</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>342380.0555774402</v>
+        <v>342325.833498445</v>
       </c>
       <c r="R39" t="n">
-        <v>6523758.381455215</v>
+        <v>6523854.937361188</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5397,12 +5392,22 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>Granskog.</t>
+          <t>Blockvall.</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Murken granlåga.</t>
+          <t>På asp, diam. ca 35 cm. # Populus tremula</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5420,10 +5425,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>97723013</v>
+        <v>97722972</v>
       </c>
       <c r="B40" t="n">
-        <v>78527</v>
+        <v>94634</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5432,38 +5437,38 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>229497</v>
+        <v>232</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Vedsäckmossa</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Calypogeia suecica</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Arnell &amp; J.Perss.) Müll.Frib.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Lundebo, blockvallarna ca 1,5 km NV om L., Dls</t>
+          <t>Lundebo, blockvallarna ca 1,3 km NV om L., Dls</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>342310.6184003365</v>
+        <v>342380.0555774402</v>
       </c>
       <c r="R40" t="n">
-        <v>6523863.852200745</v>
+        <v>6523758.381455215</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5519,22 +5524,12 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>Blockvall.</t>
-        </is>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
+          <t>Granskog.</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>På asp, ca. 20 cm diam. # Populus tremula</t>
+          <t>Murken granlåga.</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5552,10 +5547,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>97723024</v>
+        <v>97723013</v>
       </c>
       <c r="B41" t="n">
-        <v>78614</v>
+        <v>78527</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5564,25 +5559,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>229504</v>
+        <v>229497</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Grynig filtlav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Peltigera collina</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Schrad.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5592,10 +5587,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>342324.8062375608</v>
+        <v>342310.6184003365</v>
       </c>
       <c r="R41" t="n">
-        <v>6523867.938354891</v>
+        <v>6523863.852200745</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5666,7 +5661,7 @@
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>På aspstam. # Populus tremula</t>
+          <t>På asp, ca. 20 cm diam. # Populus tremula</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5684,10 +5679,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>97722980</v>
+        <v>97723024</v>
       </c>
       <c r="B42" t="n">
-        <v>94121</v>
+        <v>78614</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5700,34 +5695,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>53</v>
+        <v>229504</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Grynig filtlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Peltigera collina</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Schrad.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Lundebo, blockvallarna ca 1,3 km NV om L., Dls</t>
+          <t>Lundebo, blockvallarna ca 1,5 km NV om L., Dls</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>342467.0614814955</v>
+        <v>342324.8062375608</v>
       </c>
       <c r="R42" t="n">
-        <v>6523739.799749749</v>
+        <v>6523867.938354891</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5781,9 +5776,24 @@
       <c r="AG42" t="b">
         <v>0</v>
       </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>Blockvall.</t>
+        </is>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Murken granlåga.</t>
+          <t>På aspstam. # Populus tremula</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5801,10 +5811,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>97722974</v>
+        <v>97722980</v>
       </c>
       <c r="B43" t="n">
-        <v>78527</v>
+        <v>94121</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5813,43 +5823,38 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>229497</v>
+        <v>53</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Lundebo, blockvallarna ca 1,3 km NV om L., Dls</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>342396.8972162628</v>
+        <v>342467.0614814955</v>
       </c>
       <c r="R43" t="n">
-        <v>6523674.753396589</v>
+        <v>6523739.799749749</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5903,24 +5908,9 @@
       <c r="AG43" t="b">
         <v>0</v>
       </c>
-      <c r="AI43" t="inlineStr">
-        <is>
-          <t>Granskog med aspinslag.</t>
-        </is>
-      </c>
-      <c r="AJ43" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK43" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>På två aspar, den störst med diam. 40-50 cm. # Populus tremula</t>
+          <t>Murken granlåga.</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -5938,10 +5928,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>97723015</v>
+        <v>97722974</v>
       </c>
       <c r="B44" t="n">
-        <v>78529</v>
+        <v>78527</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5950,38 +5940,43 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>515</v>
+        <v>229497</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Blylav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Pectenia plumbea</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Lightf.) P.M.Jørg. et al.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Lundebo, blockvallarna ca 1,5 km NV om L., Dls</t>
+          <t>Lundebo, blockvallarna ca 1,3 km NV om L., Dls</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>342310.6184003365</v>
+        <v>342396.8972162628</v>
       </c>
       <c r="R44" t="n">
-        <v>6523863.852200745</v>
+        <v>6523674.753396589</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6037,7 +6032,7 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>Blockvall.</t>
+          <t>Granskog med aspinslag.</t>
         </is>
       </c>
       <c r="AJ44" t="inlineStr">
@@ -6052,7 +6047,7 @@
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>På asp, avbruten ca. en meter ovan mark. Barken ramlar nog snart av och arten försvinner. # Populus tremula</t>
+          <t>På två aspar, den störst med diam. 40-50 cm. # Populus tremula</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6070,10 +6065,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>98584146</v>
+        <v>97723015</v>
       </c>
       <c r="B45" t="n">
-        <v>94121</v>
+        <v>78529</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -6082,45 +6077,41 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>53</v>
+        <v>515</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Blylav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Pectenia plumbea</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Lightf.) P.M.Jørg. et al.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Blockvallarna NV Lundebo, drygt 1 km SO Bytjärn, Dls</t>
+          <t>Lundebo, blockvallarna ca 1,5 km NV om L., Dls</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>342479.6157512952</v>
+        <v>342310.6184003365</v>
       </c>
       <c r="R45" t="n">
-        <v>6523691.078499206</v>
+        <v>6523863.852200745</v>
       </c>
       <c r="S45" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -6144,7 +6135,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2001-05-14</t>
+          <t>2021-10-17</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -6154,7 +6145,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2001-05-14</t>
+          <t>2021-10-17</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -6168,13 +6159,27 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
-      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
+      <c r="AI45" t="inlineStr">
+        <is>
+          <t>Blockvall.</t>
+        </is>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>På låga.</t>
+          <t>På asp, avbruten ca. en meter ovan mark. Barken ramlar nog snart av och arten försvinner. # Populus tremula</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6192,10 +6197,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>98584226</v>
+        <v>98584146</v>
       </c>
       <c r="B46" t="n">
-        <v>78527</v>
+        <v>94121</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6204,44 +6209,45 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>229497</v>
+        <v>53</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Blockvallarna vid Lundebo, ca 850 m SO Bytjärnet, Dls</t>
+          <t>Blockvallarna NV Lundebo, drygt 1 km SO Bytjärn, Dls</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>342312.9148465615</v>
+        <v>342479.6157512952</v>
       </c>
       <c r="R46" t="n">
-        <v>6523856.501381523</v>
+        <v>6523691.078499206</v>
       </c>
       <c r="S46" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -6293,24 +6299,9 @@
       <c r="AG46" t="b">
         <v>0</v>
       </c>
-      <c r="AI46" t="inlineStr">
-        <is>
-          <t>Barrskog med lit inslag av asp.</t>
-        </is>
-      </c>
-      <c r="AJ46" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK46" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>Bark. # Populus tremula</t>
+          <t>På låga.</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6328,10 +6319,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>98584053</v>
+        <v>98584226</v>
       </c>
       <c r="B47" t="n">
-        <v>93056</v>
+        <v>78527</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6344,41 +6335,40 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2813</v>
+        <v>229497</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Lundebo, vid blockvallarna, 1,25 km SO-OSO Bytjärn, Dls</t>
+          <t>Blockvallarna vid Lundebo, ca 850 m SO Bytjärnet, Dls</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>342606.9935868181</v>
+        <v>342312.9148465615</v>
       </c>
       <c r="R47" t="n">
-        <v>6523503.412205521</v>
+        <v>6523856.501381523</v>
       </c>
       <c r="S47" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6432,7 +6422,22 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>Sumpskog.</t>
+          <t>Barrskog med lit inslag av asp.</t>
+        </is>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>Bark. # Populus tremula</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6450,10 +6455,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>98584125</v>
+        <v>98584053</v>
       </c>
       <c r="B48" t="n">
-        <v>93044</v>
+        <v>93056</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6466,21 +6471,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2809</v>
+        <v>2813</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6490,14 +6495,14 @@
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Blockvallarna NV Lundebo, drygt 1 km SO Bytjärn, Dls</t>
+          <t>Lundebo, vid blockvallarna, 1,25 km SO-OSO Bytjärn, Dls</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>342479.6157512952</v>
+        <v>342606.9935868181</v>
       </c>
       <c r="R48" t="n">
-        <v>6523691.078499206</v>
+        <v>6523503.412205521</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6551,6 +6556,11 @@
       <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
+      </c>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>Sumpskog.</t>
+        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
@@ -6567,7 +6577,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>98584051</v>
+        <v>98584125</v>
       </c>
       <c r="B49" t="n">
         <v>93044</v>
@@ -6607,14 +6617,14 @@
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Lundebo, vid blockvallarna, 1,25 km SO-OSO Bytjärn, Dls</t>
+          <t>Blockvallarna NV Lundebo, drygt 1 km SO Bytjärn, Dls</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>342606.9935868181</v>
+        <v>342479.6157512952</v>
       </c>
       <c r="R49" t="n">
-        <v>6523503.412205521</v>
+        <v>6523691.078499206</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6668,11 +6678,6 @@
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
-      </c>
-      <c r="AI49" t="inlineStr">
-        <is>
-          <t>Sumpskog.</t>
-        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
@@ -6689,10 +6694,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>98584206</v>
+        <v>98584051</v>
       </c>
       <c r="B50" t="n">
-        <v>78529</v>
+        <v>93044</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6701,44 +6706,45 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>515</v>
+        <v>2809</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Blylav</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Pectenia plumbea</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Lightf.) P.M.Jørg. et al.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Blockvallarna vid Lundebo, ca 850 m SO Bytjärnet, Dls</t>
+          <t>Lundebo, vid blockvallarna, 1,25 km SO-OSO Bytjärn, Dls</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>342312.9148465615</v>
+        <v>342606.9935868181</v>
       </c>
       <c r="R50" t="n">
-        <v>6523856.501381523</v>
+        <v>6523503.412205521</v>
       </c>
       <c r="S50" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6792,22 +6798,7 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>Barrskog med lite inslag av asp.</t>
-        </is>
-      </c>
-      <c r="AJ50" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK50" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO50" t="inlineStr">
-        <is>
-          <t>På aspstam. # Populus tremula</t>
+          <t>Sumpskog.</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -6825,10 +6816,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>98596556</v>
+        <v>98584206</v>
       </c>
       <c r="B51" t="n">
-        <v>78602</v>
+        <v>78529</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6837,38 +6828,41 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6463</v>
+        <v>515</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Blylav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Pectenia plumbea</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lightf.) P.M.Jørg. et al.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Lundebo, vid blockvallarna, ca 800 m SO Bytjärnet, Dls</t>
+          <t>Blockvallarna vid Lundebo, ca 850 m SO Bytjärnet, Dls</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>342289.4356861421</v>
+        <v>342312.9148465615</v>
       </c>
       <c r="R51" t="n">
-        <v>6523879.23104008</v>
+        <v>6523856.501381523</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6919,9 +6913,15 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>Barrskog med lite inslag av asp.</t>
+        </is>
+      </c>
       <c r="AJ51" t="inlineStr">
         <is>
           <t>asp</t>
@@ -6934,7 +6934,7 @@
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>Gammal asp med avfallande bark. # Populus tremula</t>
+          <t>På aspstam. # Populus tremula</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>
@@ -6952,10 +6952,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>98596560</v>
+        <v>98596556</v>
       </c>
       <c r="B52" t="n">
-        <v>78529</v>
+        <v>78602</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6964,38 +6964,38 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>515</v>
+        <v>6463</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Blylav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Pectenia plumbea</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Lightf.) P.M.Jørg. et al.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Lundebo, vid blockvallarna, ca 825 m SO Bytjärnet, Dls</t>
+          <t>Lundebo, vid blockvallarna, ca 800 m SO Bytjärnet, Dls</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>342304.5873039886</v>
+        <v>342289.4356861421</v>
       </c>
       <c r="R52" t="n">
-        <v>6523868.763647925</v>
+        <v>6523879.23104008</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>På gammal, knotig asp. # Populus tremula</t>
+          <t>Gammal asp med avfallande bark. # Populus tremula</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr"/>
@@ -7079,10 +7079,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>98596566</v>
+        <v>98596560</v>
       </c>
       <c r="B53" t="n">
-        <v>94121</v>
+        <v>78529</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -7091,38 +7091,38 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>53</v>
+        <v>515</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Blylav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Pectenia plumbea</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Lightf.) P.M.Jørg. et al.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Lundebo, vid blockvallarna, ca 775 m SO Bytjärnet, Dls</t>
+          <t>Lundebo, vid blockvallarna, ca 825 m SO Bytjärnet, Dls</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>342249.8868763665</v>
+        <v>342304.5873039886</v>
       </c>
       <c r="R53" t="n">
-        <v>6523877.217275365</v>
+        <v>6523868.763647925</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -7176,9 +7176,19 @@
       <c r="AG53" t="b">
         <v>0</v>
       </c>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>Grov granlåga.</t>
+          <t>På gammal, knotig asp. # Populus tremula</t>
         </is>
       </c>
       <c r="AT53" t="inlineStr"/>
@@ -7196,10 +7206,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>98596568</v>
+        <v>98596566</v>
       </c>
       <c r="B54" t="n">
-        <v>78569</v>
+        <v>94121</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -7212,34 +7222,34 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Lundebo, vid blockvallarna, ca 725 m SO Bytjärnet, Dls</t>
+          <t>Lundebo, vid blockvallarna, ca 775 m SO Bytjärnet, Dls</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>342243.3644460927</v>
+        <v>342249.8868763665</v>
       </c>
       <c r="R54" t="n">
-        <v>6523971.824284667</v>
+        <v>6523877.217275365</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7293,19 +7303,9 @@
       <c r="AG54" t="b">
         <v>0</v>
       </c>
-      <c r="AJ54" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK54" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>Grov asp. # Populus tremula</t>
+          <t>Grov granlåga.</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>

--- a/artfynd/A 43427-2019.xlsx
+++ b/artfynd/A 43427-2019.xlsx
@@ -813,10 +813,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>98596568</v>
+        <v>113010</v>
       </c>
       <c r="B3" t="n">
-        <v>78569</v>
+        <v>94120</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -829,37 +829,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Lundebo, vid blockvallarna, ca 725 m SO Bytjärnet, Dls</t>
+          <t>Ca 750 m SO Bytjärnet, intill blockmark, Dls</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>342243.3644460927</v>
+        <v>342312.1471750498</v>
       </c>
       <c r="R3" t="n">
-        <v>6523971.824284667</v>
+        <v>6523939.469987803</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2001-05-14</t>
+          <t>1996-10-30</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2001-05-14</t>
+          <t>1996-10-30</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -910,19 +910,17 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>I barrblandskog med aspinslag</t>
+        </is>
+      </c>
+      <c r="AN3" t="n">
+        <v>1</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Grov asp. # Populus tremula</t>
+          <t>1 substratenheter # Grövre tallåga</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -940,10 +938,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>80065908</v>
+        <v>80288</v>
       </c>
       <c r="B4" t="n">
-        <v>78569</v>
+        <v>94120</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -956,37 +954,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Blockvallarna Lundebo, Dls</t>
+          <t>Vid blockvallarna NV Lundebo, 750 m OSO Bytjärn, Dls</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>342592.6929406116</v>
+        <v>342286.3494918213</v>
       </c>
       <c r="R4" t="n">
-        <v>6523611.303520273</v>
+        <v>6523994.431422278</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1013,7 +1008,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2019-09-23</t>
+          <t>2001-05-14</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1023,7 +1018,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2019-09-23</t>
+          <t>2001-05-14</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1033,7 +1028,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>På Asp. Kalhugget runt omkring.</t>
+          <t>Sparsamt, tillsammans med Lophozia ascendens</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1042,29 +1037,41 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>I barrdominerad blandskog</t>
+        </is>
+      </c>
+      <c r="AN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Asplåga</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80217938</v>
+        <v>113011</v>
       </c>
       <c r="B5" t="n">
-        <v>78569</v>
+        <v>94120</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1077,40 +1084,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Lundebo, 1100 m NV om, Dls</t>
+          <t>Ca 700 m SO Bytjärnet, Dls</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>342651.1325394279</v>
+        <v>342242.0119316755</v>
       </c>
       <c r="R5" t="n">
-        <v>6523669.05601931</v>
+        <v>6523938.705040169</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1134,7 +1138,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2019-10-01</t>
+          <t>1996-10-30</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1144,7 +1148,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2019-10-01</t>
+          <t>1996-10-30</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1158,44 +1162,41 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Blockig granblandskogasp-</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>Asp</t>
-        </is>
+          <t>I barrblandskog med aspinslag</t>
+        </is>
+      </c>
+      <c r="AN5" t="n">
+        <v>1</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Asp</t>
+          <t>1 substratenheter # Klen granlåga</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Claes Kannesten</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Claes Kannesten, Anders Niklasson</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>92497986</v>
+        <v>200412</v>
       </c>
       <c r="B6" t="n">
-        <v>94634</v>
+        <v>94633</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1228,17 +1229,17 @@
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Lämmelmossen (UE 03), Dls</t>
+          <t>Ca 1,3 km NV Lundebo, ca 25 m V om vägen, Dls</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>342616.1177549633</v>
+        <v>342563.6217579405</v>
       </c>
       <c r="R6" t="n">
-        <v>6523689.144047635</v>
+        <v>6523802.733529816</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1262,7 +1263,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2001-06-15</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1272,7 +1273,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2001-06-15</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1291,28 +1292,42 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Barrskog med inslag av grov asp</t>
-        </is>
-      </c>
+          <t>Grandominerad sumpskog</t>
+        </is>
+      </c>
+      <c r="AN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Grov björklåga</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>Leif Appelgren</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>92499038</v>
+        <v>254200</v>
       </c>
       <c r="B7" t="n">
-        <v>94437</v>
+        <v>93234</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1321,41 +1336,50 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>990</v>
+        <v>210</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Liten hornflikmossa</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lophozia ascendens</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Warnst.) R.M.Schust.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Lämmelmossen (UE 03), Dls</t>
+          <t>Lundebo, vid blockvallarna, 800 m SO Bytjärnet, Dls</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>342616.1177549633</v>
+        <v>342312.8768359129</v>
       </c>
       <c r="R7" t="n">
-        <v>6523689.144047635</v>
+        <v>6523944.623724218</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1379,7 +1403,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2001-05-10</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1389,7 +1413,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2001-05-10</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1403,34 +1427,41 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Barrskog med inslag av grov asp</t>
+          <t>Fuktig granskog med aspinslag</t>
+        </is>
+      </c>
+      <c r="AN7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Murken asplåga</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Leif Appelgren, Niklas Lönnell, Tomas Hallingbäck</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92497786</v>
+        <v>1956318</v>
       </c>
       <c r="B8" t="n">
-        <v>94121</v>
+        <v>78568</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1443,37 +1474,37 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Lämmelmossen (UE 03), Dls</t>
+          <t>Blockvallarna vid Lundebo, ca 850 m SO Bytjärnet, Dls</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>342616.1177549633</v>
+        <v>342312.9148465615</v>
       </c>
       <c r="R8" t="n">
-        <v>6523689.144047635</v>
+        <v>6523856.501381523</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1497,7 +1528,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2001-05-14</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1507,7 +1538,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2001-05-14</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1526,28 +1557,33 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Barrskog med inslag av grov asp</t>
+          <t>Barrblandskog med aspinslag</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>aspbark</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>92498240</v>
+        <v>295371</v>
       </c>
       <c r="B9" t="n">
-        <v>93044</v>
+        <v>78599</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1556,41 +1592,41 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2809</v>
+        <v>1083</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Västlig njurlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Nephroma laevigatum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Lämmelmossen (UE 03), Dls</t>
+          <t>Blockvallarna vid Lundebo, ca 850 m SO Bytjärnet, Dls</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>342616.1177549633</v>
+        <v>342312.9148465615</v>
       </c>
       <c r="R9" t="n">
-        <v>6523689.144047635</v>
+        <v>6523856.501381523</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1614,7 +1650,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2001-05-14</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1624,7 +1660,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2001-05-14</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1632,6 +1668,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Sparsamt förekommande</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1643,28 +1684,39 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Barrskog med inslag av grov asp</t>
-        </is>
-      </c>
+          <t>Barrblandskog med aspinslag</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>aspbark</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>Leif Appelgren</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr"/>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>92498425</v>
+        <v>382822</v>
       </c>
       <c r="B10" t="n">
-        <v>94132</v>
+        <v>94436</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1673,41 +1725,41 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>291</v>
+        <v>990</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stubbtrådmossa</t>
+          <t>Liten hornflikmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fuscocephaloziopsis catenulata</t>
+          <t>Lophozia ascendens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Huebener) Váňa &amp; L.Söderstr.</t>
+          <t>(Warnst.) R.M.Schust.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Lämmelmossen (UE 03), Dls</t>
+          <t>Vid blockvallarna NV Lundebo, 750 m OSO Bytjärn, Dls</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>342616.1177549633</v>
+        <v>342286.3494918213</v>
       </c>
       <c r="R10" t="n">
-        <v>6523689.144047635</v>
+        <v>6523994.431422278</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1731,7 +1783,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2001-05-14</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1741,7 +1793,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2001-05-14</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1760,28 +1812,39 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Barrskog med inslag av grov asp</t>
-        </is>
-      </c>
+          <t>I barrdominerad blandskog</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>På asplåga</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>Leif Appelgren</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr"/>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>113010</v>
+        <v>630580</v>
       </c>
       <c r="B11" t="n">
-        <v>94120</v>
+        <v>92682</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1790,38 +1853,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>53</v>
+        <v>2383</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Bågpraktmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Plagiomnium medium</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Bruch &amp; Schimp.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Ca 750 m SO Bytjärnet, intill blockmark, Dls</t>
+          <t>Blockvallarna NV Lundebo, drygt 1 km SO Bytjärn, Dls</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>342312.1471750498</v>
+        <v>342479.6157512952</v>
       </c>
       <c r="R11" t="n">
-        <v>6523939.469987803</v>
+        <v>6523691.078499206</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1848,7 +1911,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1996-10-30</t>
+          <t>2001-05-14</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1858,7 +1921,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>1996-10-30</t>
+          <t>2001-05-14</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1877,17 +1940,20 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>I barrblandskog med aspinslag</t>
-        </is>
-      </c>
-      <c r="AN11" t="n">
-        <v>1</v>
+          <t>Trädlös blockvall omgiven av skog, skuggigt</t>
+        </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1 substratenheter # Grövre tallåga</t>
-        </is>
-      </c>
+          <t>På stenblock !</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>Leif Appelgren</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr"/>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
@@ -1903,10 +1969,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>80288</v>
+        <v>486885</v>
       </c>
       <c r="B12" t="n">
-        <v>94120</v>
+        <v>92687</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1915,41 +1981,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>53</v>
+        <v>2387</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Källpraktmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Pseudobryum cinclidioides</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Huebener) T.J.Kop.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Vid blockvallarna NV Lundebo, 750 m OSO Bytjärn, Dls</t>
+          <t>Vid blockvallarna NV Lundebo, ca 1 km NV Lundebo, Dls</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>342286.3494918213</v>
+        <v>342453.5972971452</v>
       </c>
       <c r="R12" t="n">
-        <v>6523994.431422278</v>
+        <v>6523791.667791574</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1991,11 +2057,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Sparsamt, tillsammans med Lophozia ascendens</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -2007,17 +2068,20 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>I barrdominerad blandskog</t>
-        </is>
-      </c>
-      <c r="AN12" t="n">
-        <v>1</v>
+          <t>Källkärr och bäckdråg i barrdominerad blandskog</t>
+        </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1 substratenheter # Asplåga</t>
-        </is>
-      </c>
+          <t>Fuktig/blöt mark</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>Leif Appelgren</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr"/>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
@@ -2033,10 +2097,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>113011</v>
+        <v>73121882</v>
       </c>
       <c r="B13" t="n">
-        <v>94120</v>
+        <v>94838</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2045,41 +2109,44 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>53</v>
+        <v>2569</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Ca 700 m SO Bytjärnet, Dls</t>
+          <t>Lundebo Blockvallarna, Dls</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>342242.0119316755</v>
+        <v>342336.8589270007</v>
       </c>
       <c r="R13" t="n">
-        <v>6523938.705040169</v>
+        <v>6523845.15682405</v>
       </c>
       <c r="S13" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2103,7 +2170,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1996-10-30</t>
+          <t>2018-09-14</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2113,7 +2180,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>1996-10-30</t>
+          <t>2018-09-14</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2127,41 +2194,29 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>I barrblandskog med aspinslag</t>
-        </is>
-      </c>
-      <c r="AN13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Klen granlåga</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>200412</v>
+        <v>73121911</v>
       </c>
       <c r="B14" t="n">
-        <v>94633</v>
+        <v>78569</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2170,41 +2225,43 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>232</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedsäckmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Calypogeia suecica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Arnell &amp; J.Perss.) Müll.Frib.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Ca 1,3 km NV Lundebo, ca 25 m V om vägen, Dls</t>
+          <t>Lundebo Blockvallarna , Dls</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>342563.6217579405</v>
+        <v>342307.5711640292</v>
       </c>
       <c r="R14" t="n">
-        <v>6523802.733529816</v>
+        <v>6523865.53167384</v>
       </c>
       <c r="S14" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2228,7 +2285,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2001-06-15</t>
+          <t>2018-09-14</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2238,7 +2295,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2001-06-15</t>
+          <t>2018-09-14</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2246,102 +2303,90 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>På 2  Aspar</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>Grandominerad sumpskog</t>
-        </is>
-      </c>
-      <c r="AN14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Grov björklåga</t>
-        </is>
-      </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>Leif Appelgren</t>
-        </is>
-      </c>
-      <c r="AR14" t="inlineStr"/>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>254200</v>
+        <v>73121914</v>
       </c>
       <c r="B15" t="n">
-        <v>93234</v>
+        <v>78529</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>210</v>
+        <v>515</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Blylav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Pectenia plumbea</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+          <t>(Lightf.) P.M.Jørg. et al.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>kapslar</t>
-        </is>
-      </c>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Lundebo, vid blockvallarna, 800 m SO Bytjärnet, Dls</t>
+          <t>Lundebo Blockvallarna , Dls</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>342312.8768359129</v>
+        <v>342307.5711640292</v>
       </c>
       <c r="R15" t="n">
-        <v>6523944.623724218</v>
+        <v>6523865.53167384</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2368,7 +2413,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2001-05-10</t>
+          <t>2018-09-14</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2378,7 +2423,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2001-05-10</t>
+          <t>2018-09-14</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2386,47 +2431,40 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>På döende Asp</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>Fuktig granskog med aspinslag</t>
-        </is>
-      </c>
-      <c r="AN15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Murken asplåga</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Leif Appelgren, Niklas Lönnell, Tomas Hallingbäck</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1956318</v>
+        <v>76139727</v>
       </c>
       <c r="B16" t="n">
-        <v>78568</v>
+        <v>93158</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2435,41 +2473,41 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>2818</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Blockvallarna vid Lundebo, ca 850 m SO Bytjärnet, Dls</t>
+          <t>Lundebo, 1,3 km NV om, ca 25 m V om vägen, Dls</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>342312.9148465615</v>
+        <v>342563.6217579405</v>
       </c>
       <c r="R16" t="n">
-        <v>6523856.501381523</v>
+        <v>6523802.733529816</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2493,7 +2531,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2001-05-14</t>
+          <t>2001-06-15</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2503,7 +2541,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2001-05-14</t>
+          <t>2001-06-15</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2511,6 +2549,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Som epifyt på klibbal.</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2522,12 +2565,12 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>Barrblandskog med aspinslag</t>
+          <t>Grandominerad sumpskog.</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>aspbark</t>
+          <t>På klibbal, 2-3 m över backen.</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2545,10 +2588,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>295371</v>
+        <v>80065908</v>
       </c>
       <c r="B17" t="n">
-        <v>78599</v>
+        <v>78569</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2557,38 +2600,41 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1083</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Västlig njurlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Nephroma laevigatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Blockvallarna vid Lundebo, ca 850 m SO Bytjärnet, Dls</t>
+          <t>Blockvallarna Lundebo, Dls</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>342312.9148465615</v>
+        <v>342592.6929406116</v>
       </c>
       <c r="R17" t="n">
-        <v>6523856.501381523</v>
+        <v>6523611.303520273</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2615,7 +2661,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2001-05-14</t>
+          <t>2019-09-23</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2625,7 +2671,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2001-05-14</t>
+          <t>2019-09-23</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2635,7 +2681,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Sparsamt förekommande</t>
+          <t>På Asp. Kalhugget runt omkring.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2644,44 +2690,29 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>Barrblandskog med aspinslag</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>aspbark</t>
-        </is>
-      </c>
-      <c r="AQ17" t="inlineStr">
-        <is>
-          <t>Leif Appelgren</t>
-        </is>
-      </c>
-      <c r="AR17" t="inlineStr"/>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>382822</v>
+        <v>80065943</v>
       </c>
       <c r="B18" t="n">
-        <v>94436</v>
+        <v>94838</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2690,38 +2721,42 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>990</v>
+        <v>2569</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Liten hornflikmossa</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lophozia ascendens</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Warnst.) R.M.Schust.</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Vid blockvallarna NV Lundebo, 750 m OSO Bytjärn, Dls</t>
+          <t>Blockvallarna Lundebo, Dls</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>342286.3494918213</v>
+        <v>342540.2923115456</v>
       </c>
       <c r="R18" t="n">
-        <v>6523994.431422278</v>
+        <v>6523561.599159945</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2748,7 +2783,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2001-05-14</t>
+          <t>2019-09-23</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2758,7 +2793,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2001-05-14</t>
+          <t>2019-09-23</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2772,44 +2807,29 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>I barrdominerad blandskog</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>På asplåga</t>
-        </is>
-      </c>
-      <c r="AQ18" t="inlineStr">
-        <is>
-          <t>Leif Appelgren</t>
-        </is>
-      </c>
-      <c r="AR18" t="inlineStr"/>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>630580</v>
+        <v>80065937</v>
       </c>
       <c r="B19" t="n">
-        <v>92682</v>
+        <v>78529</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2818,41 +2838,52 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2383</v>
+        <v>515</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bågpraktmossa</t>
+          <t>Blylav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Plagiomnium medium</t>
+          <t>Pectenia plumbea</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Bruch &amp; Schimp.) T.J.Kop.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>(Lightf.) P.M.Jørg. et al.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Blockvallarna NV Lundebo, drygt 1 km SO Bytjärn, Dls</t>
+          <t>Blockvallarna Lundebo, Dls</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>342479.6157512952</v>
+        <v>342540.2923115456</v>
       </c>
       <c r="R19" t="n">
-        <v>6523691.078499206</v>
+        <v>6523561.599159945</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2876,7 +2907,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2001-05-14</t>
+          <t>2019-09-23</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2886,7 +2917,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2001-05-14</t>
+          <t>2019-09-23</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2900,44 +2931,29 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>Trädlös blockvall omgiven av skog, skuggigt</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>På stenblock !</t>
-        </is>
-      </c>
-      <c r="AQ19" t="inlineStr">
-        <is>
-          <t>Leif Appelgren</t>
-        </is>
-      </c>
-      <c r="AR19" t="inlineStr"/>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>486885</v>
+        <v>80065929</v>
       </c>
       <c r="B20" t="n">
-        <v>92687</v>
+        <v>78569</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2946,41 +2962,44 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2387</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Källpraktmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pseudobryum cinclidioides</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Huebener) T.J.Kop.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Vid blockvallarna NV Lundebo, ca 1 km NV Lundebo, Dls</t>
+          <t>Blockvallarna Lundebo, Dls</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>342453.5972971452</v>
+        <v>342540.2923115456</v>
       </c>
       <c r="R20" t="n">
-        <v>6523791.667791574</v>
+        <v>6523561.599159945</v>
       </c>
       <c r="S20" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3004,7 +3023,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2001-05-14</t>
+          <t>2019-09-23</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3014,7 +3033,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2001-05-14</t>
+          <t>2019-09-23</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -3028,44 +3047,29 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>Källkärr och bäckdråg i barrdominerad blandskog</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Fuktig/blöt mark</t>
-        </is>
-      </c>
-      <c r="AQ20" t="inlineStr">
-        <is>
-          <t>Leif Appelgren</t>
-        </is>
-      </c>
-      <c r="AR20" t="inlineStr"/>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Anders Niklasson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>73121882</v>
+        <v>80217868</v>
       </c>
       <c r="B21" t="n">
-        <v>94838</v>
+        <v>78529</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3074,41 +3078,41 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2569</v>
+        <v>515</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Blylav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Pectenia plumbea</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>(Lightf.) P.M.Jørg. et al.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Lundebo Blockvallarna, Dls</t>
+          <t>Lundebo, 1200 m NV om, Dls</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>342336.8589270007</v>
+        <v>342548.4824541288</v>
       </c>
       <c r="R21" t="n">
-        <v>6523845.15682405</v>
+        <v>6523558.673379607</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3135,7 +3139,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2018-09-14</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3145,7 +3149,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2018-09-14</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3163,22 +3167,37 @@
       <c r="AG21" t="b">
         <v>0</v>
       </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>Blockig granblandskogasp-</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>Asp</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Asp</t>
+        </is>
+      </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Claes Kannesten</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Claes Kannesten, Anders Niklasson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>73121911</v>
+        <v>80217938</v>
       </c>
       <c r="B22" t="n">
         <v>78569</v>
@@ -3214,16 +3233,17 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Lundebo Blockvallarna , Dls</t>
+          <t>Lundebo, 1100 m NV om, Dls</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>342307.5711640292</v>
+        <v>342651.1325394279</v>
       </c>
       <c r="R22" t="n">
-        <v>6523865.53167384</v>
+        <v>6523669.05601931</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3250,7 +3270,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2018-09-14</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3260,17 +3280,12 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2018-09-14</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>På 2  Aspar</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3283,75 +3298,83 @@
       <c r="AG22" t="b">
         <v>0</v>
       </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>Blockig granblandskogasp-</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>Asp</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Asp</t>
+        </is>
+      </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Claes Kannesten</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Claes Kannesten, Anders Niklasson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>73121914</v>
+        <v>80217831</v>
       </c>
       <c r="B23" t="n">
-        <v>78529</v>
+        <v>78569</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>515</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blylav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Pectenia plumbea</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Lightf.) P.M.Jørg. et al.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Lundebo Blockvallarna , Dls</t>
+          <t>Lundebo, 1200 m NV om, Dls</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>342307.5711640292</v>
+        <v>342548.4824541288</v>
       </c>
       <c r="R23" t="n">
-        <v>6523865.53167384</v>
+        <v>6523558.673379607</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3378,7 +3401,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2018-09-14</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3388,17 +3411,12 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2018-09-14</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>På döende Asp</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3411,25 +3429,40 @@
       <c r="AG23" t="b">
         <v>0</v>
       </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>Blockig granblandskogasp-</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>Asp.</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Asp.</t>
+        </is>
+      </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Claes Kannesten</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Claes Kannesten, Anders Niklasson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>76139727</v>
+        <v>80217877</v>
       </c>
       <c r="B24" t="n">
-        <v>93158</v>
+        <v>78527</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3442,37 +3475,40 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2818</v>
+        <v>229497</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Lundebo, 1,3 km NV om, ca 25 m V om vägen, Dls</t>
+          <t>Lundebo, 1200 m NV om, Dls</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>342563.6217579405</v>
+        <v>342548.4824541288</v>
       </c>
       <c r="R24" t="n">
-        <v>6523802.733529816</v>
+        <v>6523558.673379607</v>
       </c>
       <c r="S24" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3496,7 +3532,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2001-06-15</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3506,7 +3542,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2001-06-15</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3514,49 +3550,50 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Som epifyt på klibbal.</t>
-        </is>
-      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>Grandominerad sumpskog.</t>
+          <t>Blockig granblandskogasp-</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>På klibbal, 2-3 m över backen.</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Claes Kannesten</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Claes Kannesten, Anders Niklasson</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>80065943</v>
+        <v>80273556</v>
       </c>
       <c r="B25" t="n">
-        <v>94838</v>
+        <v>78527</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3569,38 +3606,37 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2569</v>
+        <v>229497</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Blockvallarna Lundebo, Dls</t>
+          <t>Lundebo, 1100 m NV om., Dls</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>342540.2923115456</v>
+        <v>342594.7090437668</v>
       </c>
       <c r="R25" t="n">
-        <v>6523561.599159945</v>
+        <v>6523431.335037406</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3627,7 +3663,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2019-09-23</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3637,7 +3673,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2019-09-23</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3655,25 +3691,30 @@
       <c r="AG25" t="b">
         <v>0</v>
       </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Asp</t>
+        </is>
+      </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Claes Kannesten</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Claes Kannesten, Anders Niklasson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>80065937</v>
+        <v>92498735</v>
       </c>
       <c r="B26" t="n">
-        <v>78529</v>
+        <v>89403</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3682,52 +3723,41 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>515</v>
+        <v>1205</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blylav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pectenia plumbea</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Lightf.) P.M.Jørg. et al.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Blockvallarna Lundebo, Dls</t>
+          <t>Lämmelmossen (UE 03), Dls</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>342540.2923115456</v>
+        <v>342519.1061621036</v>
       </c>
       <c r="R26" t="n">
-        <v>6523561.599159945</v>
+        <v>6523666.141268214</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3751,7 +3781,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2019-09-23</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3761,7 +3791,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2019-09-23</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3775,29 +3805,33 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>Barrskog med inslag av grov asp</t>
+        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>80065929</v>
+        <v>92498754</v>
       </c>
       <c r="B27" t="n">
-        <v>78569</v>
+        <v>78527</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3806,44 +3840,41 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>229497</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Blockvallarna Lundebo, Dls</t>
+          <t>Lämmelmossen (UE 03), Dls</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>342540.2923115456</v>
+        <v>342530.7410194727</v>
       </c>
       <c r="R27" t="n">
-        <v>6523561.599159945</v>
+        <v>6523696.770064287</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3867,7 +3898,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2019-09-23</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3877,7 +3908,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2019-09-23</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3891,29 +3922,33 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>Barrskog med inslag av grov asp</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Anders Niklasson</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>80217868</v>
+        <v>92497986</v>
       </c>
       <c r="B28" t="n">
-        <v>78529</v>
+        <v>94634</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3922,44 +3957,41 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>515</v>
+        <v>232</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Blylav</t>
+          <t>Vedsäckmossa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pectenia plumbea</t>
+          <t>Calypogeia suecica</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Lightf.) P.M.Jørg. et al.</t>
+          <t>(Arnell &amp; J.Perss.) Müll.Frib.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Lundebo, 1200 m NV om, Dls</t>
+          <t>Lämmelmossen (UE 03), Dls</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>342548.4824541288</v>
+        <v>342616.1177549633</v>
       </c>
       <c r="R28" t="n">
-        <v>6523558.673379607</v>
+        <v>6523689.144047635</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3983,7 +4015,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2019-10-01</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3993,7 +4025,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2019-10-01</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -4007,44 +4039,33 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>Blockig granblandskogasp-</t>
-        </is>
-      </c>
-      <c r="AL28" t="inlineStr">
-        <is>
-          <t>Asp</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>Asp</t>
+          <t>Barrskog med inslag av grov asp</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Claes Kannesten</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Claes Kannesten, Anders Niklasson</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>80217831</v>
+        <v>92499038</v>
       </c>
       <c r="B29" t="n">
-        <v>78569</v>
+        <v>94437</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4053,44 +4074,41 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>990</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Liten hornflikmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lophozia ascendens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Warnst.) R.M.Schust.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Lundebo, 1200 m NV om, Dls</t>
+          <t>Lämmelmossen (UE 03), Dls</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>342548.4824541288</v>
+        <v>342616.1177549633</v>
       </c>
       <c r="R29" t="n">
-        <v>6523558.673379607</v>
+        <v>6523689.144047635</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4114,7 +4132,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2019-10-01</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -4124,7 +4142,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2019-10-01</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -4144,38 +4162,28 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>Blockig granblandskogasp-</t>
-        </is>
-      </c>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>Asp.</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>Asp.</t>
+          <t>Barrskog med inslag av grov asp</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Claes Kannesten</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Claes Kannesten, Anders Niklasson</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>80217877</v>
+        <v>92497786</v>
       </c>
       <c r="B30" t="n">
-        <v>78527</v>
+        <v>94121</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4184,44 +4192,41 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>229497</v>
+        <v>53</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Lundebo, 1200 m NV om, Dls</t>
+          <t>Lämmelmossen (UE 03), Dls</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>342548.4824541288</v>
+        <v>342616.1177549633</v>
       </c>
       <c r="R30" t="n">
-        <v>6523558.673379607</v>
+        <v>6523689.144047635</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4245,7 +4250,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2019-10-01</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -4255,7 +4260,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2019-10-01</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -4269,44 +4274,33 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>Blockig granblandskogasp-</t>
-        </is>
-      </c>
-      <c r="AL30" t="inlineStr">
-        <is>
-          <t>Asp</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Asp</t>
+          <t>Barrskog med inslag av grov asp</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Claes Kannesten</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Claes Kannesten, Anders Niklasson</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>80273556</v>
+        <v>92498427</v>
       </c>
       <c r="B31" t="n">
-        <v>78527</v>
+        <v>94132</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4315,44 +4309,41 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>229497</v>
+        <v>291</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Stubbtrådmossa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Fuscocephaloziopsis catenulata</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Huebener) Váňa &amp; L.Söderstr.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Lundebo, 1100 m NV om., Dls</t>
+          <t>Lämmelmossen (UE 03), Dls</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>342594.7090437668</v>
+        <v>342473.8166226569</v>
       </c>
       <c r="R31" t="n">
-        <v>6523431.335037406</v>
+        <v>6523790.843284611</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4376,7 +4367,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2019-10-01</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4386,7 +4377,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2019-10-01</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4400,34 +4391,33 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Asp</t>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>Barrsumpskog</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Claes Kannesten</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Claes Kannesten, Anders Niklasson</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>92498735</v>
+        <v>92498240</v>
       </c>
       <c r="B32" t="n">
-        <v>89403</v>
+        <v>93044</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4440,21 +4430,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1205</v>
+        <v>2809</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4464,10 +4454,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>342519.1061621036</v>
+        <v>342616.1177549633</v>
       </c>
       <c r="R32" t="n">
-        <v>6523666.141268214</v>
+        <v>6523689.144047635</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4541,10 +4531,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>92498754</v>
+        <v>92497988</v>
       </c>
       <c r="B33" t="n">
-        <v>78527</v>
+        <v>94634</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4553,25 +4543,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>229497</v>
+        <v>232</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Vedsäckmossa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Calypogeia suecica</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Arnell &amp; J.Perss.) Müll.Frib.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4581,10 +4571,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>342530.7410194727</v>
+        <v>342484.2066089435</v>
       </c>
       <c r="R33" t="n">
-        <v>6523696.770064287</v>
+        <v>6523790.938011299</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4640,7 +4630,12 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>Barrskog med inslag av grov asp</t>
+          <t>Barrsumpskog</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4658,7 +4653,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>92498427</v>
+        <v>92498425</v>
       </c>
       <c r="B34" t="n">
         <v>94132</v>
@@ -4698,10 +4693,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>342473.8166226569</v>
+        <v>342616.1177549633</v>
       </c>
       <c r="R34" t="n">
-        <v>6523790.843284611</v>
+        <v>6523689.144047635</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4757,7 +4752,7 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>Barrsumpskog</t>
+          <t>Barrskog med inslag av grov asp</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4775,10 +4770,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>92497988</v>
+        <v>97723010</v>
       </c>
       <c r="B35" t="n">
-        <v>94634</v>
+        <v>78600</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4791,37 +4786,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>232</v>
+        <v>1083</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vedsäckmossa</t>
+          <t>Västlig njurlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Calypogeia suecica</t>
+          <t>Nephroma laevigatum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Arnell &amp; J.Perss.) Müll.Frib.</t>
+          <t>Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Lämmelmossen (UE 03), Dls</t>
+          <t>Lundebo, blockvallarna ca 1,3 km NV om L., Dls</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>342484.2066089435</v>
+        <v>342386.6523272874</v>
       </c>
       <c r="R35" t="n">
-        <v>6523790.938011299</v>
+        <v>6523703.682498968</v>
       </c>
       <c r="S35" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4845,7 +4840,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2021-10-17</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4855,7 +4850,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2021-10-17</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -4874,33 +4869,43 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>Barrsumpskog</t>
+          <t>Granskog med aspinslag.</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Granlåga</t>
+          <t>På asp, diam. 34-40 cm. # Populus tremula</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>97723010</v>
+        <v>97723023</v>
       </c>
       <c r="B36" t="n">
-        <v>78600</v>
+        <v>78602</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4909,38 +4914,38 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1083</v>
+        <v>6463</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Västlig njurlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Nephroma laevigatum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Lundebo, blockvallarna ca 1,3 km NV om L., Dls</t>
+          <t>Lundebo, blockvallarna ca 1,5 km NV om L., Dls</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>342386.6523272874</v>
+        <v>342324.8062375608</v>
       </c>
       <c r="R36" t="n">
-        <v>6523703.682498968</v>
+        <v>6523867.938354891</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4996,7 +5001,7 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>Granskog med aspinslag.</t>
+          <t>Blockvall.</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
@@ -5011,7 +5016,7 @@
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>På asp, diam. 34-40 cm. # Populus tremula</t>
+          <t>På aspstam. # Populus tremula</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5029,10 +5034,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>97723023</v>
+        <v>97722971</v>
       </c>
       <c r="B37" t="n">
-        <v>78602</v>
+        <v>78527</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -5045,34 +5050,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6463</v>
+        <v>229497</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Lundebo, blockvallarna ca 1,5 km NV om L., Dls</t>
+          <t>Lundebo, blockvallarna ca 1,4 km NV om L., Dls</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>342324.8062375608</v>
+        <v>342353.0867447078</v>
       </c>
       <c r="R37" t="n">
-        <v>6523867.938354891</v>
+        <v>6523746.522441968</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5128,7 +5133,7 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>Blockvall.</t>
+          <t>Granskog med aspinslag.</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
@@ -5143,7 +5148,7 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>På aspstam. # Populus tremula</t>
+          <t>På asp, diam. ca 50 cm. # Populus tremula</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5161,10 +5166,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>97722971</v>
+        <v>97723022</v>
       </c>
       <c r="B38" t="n">
-        <v>78527</v>
+        <v>78529</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5173,38 +5178,38 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>229497</v>
+        <v>515</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Blylav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Pectenia plumbea</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Lightf.) P.M.Jørg. et al.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Lundebo, blockvallarna ca 1,4 km NV om L., Dls</t>
+          <t>Lundebo, blockvallarna ca 1,5 km NV om L., Dls</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>342353.0867447078</v>
+        <v>342325.833498445</v>
       </c>
       <c r="R38" t="n">
-        <v>6523746.522441968</v>
+        <v>6523854.937361188</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5260,7 +5265,7 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>Granskog med aspinslag.</t>
+          <t>Blockvall.</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
@@ -5275,7 +5280,7 @@
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>På asp, diam. ca 50 cm. # Populus tremula</t>
+          <t>På asp, diam. ca 35 cm. # Populus tremula</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5293,10 +5298,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>97723022</v>
+        <v>97722972</v>
       </c>
       <c r="B39" t="n">
-        <v>78529</v>
+        <v>94634</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5305,38 +5310,38 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>515</v>
+        <v>232</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Blylav</t>
+          <t>Vedsäckmossa</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Pectenia plumbea</t>
+          <t>Calypogeia suecica</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Lightf.) P.M.Jørg. et al.</t>
+          <t>(Arnell &amp; J.Perss.) Müll.Frib.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Lundebo, blockvallarna ca 1,5 km NV om L., Dls</t>
+          <t>Lundebo, blockvallarna ca 1,3 km NV om L., Dls</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>342325.833498445</v>
+        <v>342380.0555774402</v>
       </c>
       <c r="R39" t="n">
-        <v>6523854.937361188</v>
+        <v>6523758.381455215</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5392,22 +5397,12 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>Blockvall.</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
+          <t>Granskog.</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>På asp, diam. ca 35 cm. # Populus tremula</t>
+          <t>Murken granlåga.</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5425,10 +5420,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>97722972</v>
+        <v>97723013</v>
       </c>
       <c r="B40" t="n">
-        <v>94634</v>
+        <v>78527</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5437,38 +5432,38 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>232</v>
+        <v>229497</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vedsäckmossa</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Calypogeia suecica</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Arnell &amp; J.Perss.) Müll.Frib.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Lundebo, blockvallarna ca 1,3 km NV om L., Dls</t>
+          <t>Lundebo, blockvallarna ca 1,5 km NV om L., Dls</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>342380.0555774402</v>
+        <v>342310.6184003365</v>
       </c>
       <c r="R40" t="n">
-        <v>6523758.381455215</v>
+        <v>6523863.852200745</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5524,12 +5519,22 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>Granskog.</t>
+          <t>Blockvall.</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>Murken granlåga.</t>
+          <t>På asp, ca. 20 cm diam. # Populus tremula</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5547,10 +5552,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>97723013</v>
+        <v>97723024</v>
       </c>
       <c r="B41" t="n">
-        <v>78527</v>
+        <v>78614</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5559,25 +5564,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>229497</v>
+        <v>229504</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Grynig filtlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Peltigera collina</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Schrad.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5587,10 +5592,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>342310.6184003365</v>
+        <v>342324.8062375608</v>
       </c>
       <c r="R41" t="n">
-        <v>6523863.852200745</v>
+        <v>6523867.938354891</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5661,7 +5666,7 @@
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>På asp, ca. 20 cm diam. # Populus tremula</t>
+          <t>På aspstam. # Populus tremula</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5679,10 +5684,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>97723024</v>
+        <v>97722980</v>
       </c>
       <c r="B42" t="n">
-        <v>78614</v>
+        <v>94121</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5695,34 +5700,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>229504</v>
+        <v>53</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Grynig filtlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Peltigera collina</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Schrad.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Lundebo, blockvallarna ca 1,5 km NV om L., Dls</t>
+          <t>Lundebo, blockvallarna ca 1,3 km NV om L., Dls</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>342324.8062375608</v>
+        <v>342467.0614814955</v>
       </c>
       <c r="R42" t="n">
-        <v>6523867.938354891</v>
+        <v>6523739.799749749</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5776,24 +5781,9 @@
       <c r="AG42" t="b">
         <v>0</v>
       </c>
-      <c r="AI42" t="inlineStr">
-        <is>
-          <t>Blockvall.</t>
-        </is>
-      </c>
-      <c r="AJ42" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK42" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>På aspstam. # Populus tremula</t>
+          <t>Murken granlåga.</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5811,10 +5801,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>97722980</v>
+        <v>97722974</v>
       </c>
       <c r="B43" t="n">
-        <v>94121</v>
+        <v>78527</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5823,38 +5813,43 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>53</v>
+        <v>229497</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Lundebo, blockvallarna ca 1,3 km NV om L., Dls</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>342467.0614814955</v>
+        <v>342396.8972162628</v>
       </c>
       <c r="R43" t="n">
-        <v>6523739.799749749</v>
+        <v>6523674.753396589</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5908,9 +5903,24 @@
       <c r="AG43" t="b">
         <v>0</v>
       </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>Granskog med aspinslag.</t>
+        </is>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Murken granlåga.</t>
+          <t>På två aspar, den störst med diam. 40-50 cm. # Populus tremula</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -5928,10 +5938,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>97722974</v>
+        <v>97723015</v>
       </c>
       <c r="B44" t="n">
-        <v>78527</v>
+        <v>78529</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5940,43 +5950,38 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>229497</v>
+        <v>515</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Blylav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Pectenia plumbea</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Lightf.) P.M.Jørg. et al.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Lundebo, blockvallarna ca 1,3 km NV om L., Dls</t>
+          <t>Lundebo, blockvallarna ca 1,5 km NV om L., Dls</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>342396.8972162628</v>
+        <v>342310.6184003365</v>
       </c>
       <c r="R44" t="n">
-        <v>6523674.753396589</v>
+        <v>6523863.852200745</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6032,7 +6037,7 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>Granskog med aspinslag.</t>
+          <t>Blockvall.</t>
         </is>
       </c>
       <c r="AJ44" t="inlineStr">
@@ -6047,7 +6052,7 @@
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>På två aspar, den störst med diam. 40-50 cm. # Populus tremula</t>
+          <t>På asp, avbruten ca. en meter ovan mark. Barken ramlar nog snart av och arten försvinner. # Populus tremula</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6065,10 +6070,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>97723015</v>
+        <v>98584146</v>
       </c>
       <c r="B45" t="n">
-        <v>78529</v>
+        <v>94121</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -6077,41 +6082,45 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>515</v>
+        <v>53</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Blylav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Pectenia plumbea</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Lightf.) P.M.Jørg. et al.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Lundebo, blockvallarna ca 1,5 km NV om L., Dls</t>
+          <t>Blockvallarna NV Lundebo, drygt 1 km SO Bytjärn, Dls</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>342310.6184003365</v>
+        <v>342479.6157512952</v>
       </c>
       <c r="R45" t="n">
-        <v>6523863.852200745</v>
+        <v>6523691.078499206</v>
       </c>
       <c r="S45" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -6135,7 +6144,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2021-10-17</t>
+          <t>2001-05-14</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -6145,7 +6154,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2021-10-17</t>
+          <t>2001-05-14</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -6159,27 +6168,13 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
-      <c r="AI45" t="inlineStr">
-        <is>
-          <t>Blockvall.</t>
-        </is>
-      </c>
-      <c r="AJ45" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK45" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>På asp, avbruten ca. en meter ovan mark. Barken ramlar nog snart av och arten försvinner. # Populus tremula</t>
+          <t>På låga.</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6197,10 +6192,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>98584146</v>
+        <v>98584226</v>
       </c>
       <c r="B46" t="n">
-        <v>94121</v>
+        <v>78527</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6209,45 +6204,44 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>53</v>
+        <v>229497</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Blockvallarna NV Lundebo, drygt 1 km SO Bytjärn, Dls</t>
+          <t>Blockvallarna vid Lundebo, ca 850 m SO Bytjärnet, Dls</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>342479.6157512952</v>
+        <v>342312.9148465615</v>
       </c>
       <c r="R46" t="n">
-        <v>6523691.078499206</v>
+        <v>6523856.501381523</v>
       </c>
       <c r="S46" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -6299,9 +6293,24 @@
       <c r="AG46" t="b">
         <v>0</v>
       </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>Barrskog med lit inslag av asp.</t>
+        </is>
+      </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>På låga.</t>
+          <t>Bark. # Populus tremula</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6319,10 +6328,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>98584226</v>
+        <v>98584053</v>
       </c>
       <c r="B47" t="n">
-        <v>78527</v>
+        <v>93056</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6335,40 +6344,41 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>229497</v>
+        <v>2813</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Blockvallarna vid Lundebo, ca 850 m SO Bytjärnet, Dls</t>
+          <t>Lundebo, vid blockvallarna, 1,25 km SO-OSO Bytjärn, Dls</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>342312.9148465615</v>
+        <v>342606.9935868181</v>
       </c>
       <c r="R47" t="n">
-        <v>6523856.501381523</v>
+        <v>6523503.412205521</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6422,22 +6432,7 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>Barrskog med lit inslag av asp.</t>
-        </is>
-      </c>
-      <c r="AJ47" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK47" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO47" t="inlineStr">
-        <is>
-          <t>Bark. # Populus tremula</t>
+          <t>Sumpskog.</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6455,10 +6450,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>98584053</v>
+        <v>98584125</v>
       </c>
       <c r="B48" t="n">
-        <v>93056</v>
+        <v>93044</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6471,21 +6466,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2813</v>
+        <v>2809</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6495,14 +6490,14 @@
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Lundebo, vid blockvallarna, 1,25 km SO-OSO Bytjärn, Dls</t>
+          <t>Blockvallarna NV Lundebo, drygt 1 km SO Bytjärn, Dls</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>342606.9935868181</v>
+        <v>342479.6157512952</v>
       </c>
       <c r="R48" t="n">
-        <v>6523503.412205521</v>
+        <v>6523691.078499206</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6556,11 +6551,6 @@
       <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
-      </c>
-      <c r="AI48" t="inlineStr">
-        <is>
-          <t>Sumpskog.</t>
-        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
@@ -6577,7 +6567,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>98584125</v>
+        <v>98584051</v>
       </c>
       <c r="B49" t="n">
         <v>93044</v>
@@ -6617,14 +6607,14 @@
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Blockvallarna NV Lundebo, drygt 1 km SO Bytjärn, Dls</t>
+          <t>Lundebo, vid blockvallarna, 1,25 km SO-OSO Bytjärn, Dls</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>342479.6157512952</v>
+        <v>342606.9935868181</v>
       </c>
       <c r="R49" t="n">
-        <v>6523691.078499206</v>
+        <v>6523503.412205521</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6678,6 +6668,11 @@
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>Sumpskog.</t>
+        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
@@ -6694,10 +6689,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>98584051</v>
+        <v>98584206</v>
       </c>
       <c r="B50" t="n">
-        <v>93044</v>
+        <v>78529</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6706,45 +6701,44 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2809</v>
+        <v>515</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Blylav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Pectenia plumbea</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Lightf.) P.M.Jørg. et al.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Lundebo, vid blockvallarna, 1,25 km SO-OSO Bytjärn, Dls</t>
+          <t>Blockvallarna vid Lundebo, ca 850 m SO Bytjärnet, Dls</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>342606.9935868181</v>
+        <v>342312.9148465615</v>
       </c>
       <c r="R50" t="n">
-        <v>6523503.412205521</v>
+        <v>6523856.501381523</v>
       </c>
       <c r="S50" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6798,7 +6792,22 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>Sumpskog.</t>
+          <t>Barrskog med lite inslag av asp.</t>
+        </is>
+      </c>
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK50" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>På aspstam. # Populus tremula</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -6816,10 +6825,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>98584206</v>
+        <v>98596556</v>
       </c>
       <c r="B51" t="n">
-        <v>78529</v>
+        <v>78602</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6828,41 +6837,38 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>515</v>
+        <v>6463</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Blylav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Pectenia plumbea</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Lightf.) P.M.Jørg. et al.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Blockvallarna vid Lundebo, ca 850 m SO Bytjärnet, Dls</t>
+          <t>Lundebo, vid blockvallarna, ca 800 m SO Bytjärnet, Dls</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>342312.9148465615</v>
+        <v>342289.4356861421</v>
       </c>
       <c r="R51" t="n">
-        <v>6523856.501381523</v>
+        <v>6523879.23104008</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6913,15 +6919,9 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
-      <c r="AI51" t="inlineStr">
-        <is>
-          <t>Barrskog med lite inslag av asp.</t>
-        </is>
-      </c>
       <c r="AJ51" t="inlineStr">
         <is>
           <t>asp</t>
@@ -6934,7 +6934,7 @@
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>På aspstam. # Populus tremula</t>
+          <t>Gammal asp med avfallande bark. # Populus tremula</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>
@@ -6952,10 +6952,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>98596556</v>
+        <v>98596560</v>
       </c>
       <c r="B52" t="n">
-        <v>78602</v>
+        <v>78529</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6964,38 +6964,38 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6463</v>
+        <v>515</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Blylav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Pectenia plumbea</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lightf.) P.M.Jørg. et al.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Lundebo, vid blockvallarna, ca 800 m SO Bytjärnet, Dls</t>
+          <t>Lundebo, vid blockvallarna, ca 825 m SO Bytjärnet, Dls</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>342289.4356861421</v>
+        <v>342304.5873039886</v>
       </c>
       <c r="R52" t="n">
-        <v>6523879.23104008</v>
+        <v>6523868.763647925</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>Gammal asp med avfallande bark. # Populus tremula</t>
+          <t>På gammal, knotig asp. # Populus tremula</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr"/>
@@ -7079,10 +7079,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>98596560</v>
+        <v>98596566</v>
       </c>
       <c r="B53" t="n">
-        <v>78529</v>
+        <v>94121</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -7091,38 +7091,38 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>515</v>
+        <v>53</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Blylav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Pectenia plumbea</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Lightf.) P.M.Jørg. et al.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Lundebo, vid blockvallarna, ca 825 m SO Bytjärnet, Dls</t>
+          <t>Lundebo, vid blockvallarna, ca 775 m SO Bytjärnet, Dls</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>342304.5873039886</v>
+        <v>342249.8868763665</v>
       </c>
       <c r="R53" t="n">
-        <v>6523868.763647925</v>
+        <v>6523877.217275365</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -7176,19 +7176,9 @@
       <c r="AG53" t="b">
         <v>0</v>
       </c>
-      <c r="AJ53" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK53" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>På gammal, knotig asp. # Populus tremula</t>
+          <t>Grov granlåga.</t>
         </is>
       </c>
       <c r="AT53" t="inlineStr"/>
@@ -7206,10 +7196,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>98596566</v>
+        <v>98596568</v>
       </c>
       <c r="B54" t="n">
-        <v>94121</v>
+        <v>78569</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -7222,34 +7212,34 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Lundebo, vid blockvallarna, ca 775 m SO Bytjärnet, Dls</t>
+          <t>Lundebo, vid blockvallarna, ca 725 m SO Bytjärnet, Dls</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>342249.8868763665</v>
+        <v>342243.3644460927</v>
       </c>
       <c r="R54" t="n">
-        <v>6523877.217275365</v>
+        <v>6523971.824284667</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7303,9 +7293,19 @@
       <c r="AG54" t="b">
         <v>0</v>
       </c>
+      <c r="AJ54" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK54" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>Grov granlåga.</t>
+          <t>Grov asp. # Populus tremula</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
